--- a/biology/Zoologie/Hyalinobatrachium_cappellei/Hyalinobatrachium_cappellei.xlsx
+++ b/biology/Zoologie/Hyalinobatrachium_cappellei/Hyalinobatrachium_cappellei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyalinobatrachium cappellei, centrolène ponctuée, aussi appelée grenouille de verre ou grenouille transparente, est une espèce d'amphibiens de la famille des Centrolenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyalinobatrachium cappellei, centrolène ponctuée, aussi appelée grenouille de verre ou grenouille transparente, est une espèce d'amphibiens de la famille des Centrolenidae.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud-est du Venezuela, au Guyana, au Suriname, en Guyane et au Brésil en Amazonas et au Mato Grosso[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud-est du Venezuela, au Guyana, au Suriname, en Guyane et au Brésil en Amazonas et au Mato Grosso.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Hyalinobatrachium fleischmanni, où elle avait été placée par Goin en 1964[4], par Castroviejo-Fisher, Vilà, Ayarzagüena, Blanc et Ernst en 2011[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été relevée de sa synonymie avec Hyalinobatrachium fleischmanni, où elle avait été placée par Goin en 1964, par Castroviejo-Fisher, Vilà, Ayarzagüena, Blanc et Ernst en 2011.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans cette espèce, le soin qu'apporte le mâle à protéger sa progéniture est l'argument privilégié par les femelles pour leur choix de partenaire. Le mâle peut en tirer parti en feignant de veiller sur une ponte abandonnée afin de séduire une partenaire[6],[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans cette espèce, le soin qu'apporte le mâle à protéger sa progéniture est l'argument privilégié par les femelles pour leur choix de partenaire. Le mâle peut en tirer parti en feignant de veiller sur une ponte abandonnée afin de séduire une partenaire,.
 </t>
         </is>
       </c>
@@ -630,9 +650,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Herman van Cappelle (nl) (1857–1932)[8].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Herman van Cappelle (nl) (1857–1932).
 </t>
         </is>
       </c>
@@ -661,7 +683,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Lidth de Jeude, 1904 : Reptiles and batrachians from Surinam, notes du Leyden Museum, vol. 25, p. 83-94 (texte intégral).</t>
         </is>
